--- a/Documentation/MP_Test_Plan.xlsx
+++ b/Documentation/MP_Test_Plan.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Logout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -112,9 +114,6 @@
     <t>TC-001</t>
   </si>
   <si>
-    <t>Login to the application with walid username and password</t>
-  </si>
-  <si>
     <t>test_001_login.py</t>
   </si>
   <si>
@@ -131,6 +130,105 @@
   </si>
   <si>
     <t xml:space="preserve">The user should be logged in successfully, the home page should be displayed. </t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Validate Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Validate Login to the application with valid username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: nasko                     password: </t>
+  </si>
+  <si>
+    <t>username: username                           password: Password123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should Not be logged in, the Login page should be displayed. </t>
+  </si>
+  <si>
+    <t>Validate Login with invalid username</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter invalid username.                                                   3.Enter invalid password                                                         4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter invalid username.                                                   3.Enter valid password                                                         4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>Validate Login with invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter valid username.                                                   3.Enter invalid password                                                         4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t>username:username                         password: valid_pass</t>
+  </si>
+  <si>
+    <t>username:nasko                         password: Password123</t>
+  </si>
+  <si>
+    <t>Validate Login with valid username and empty password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter valid username.                                                       3.Do not enter password   into the password field                                                      4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username:nasko                         password: </t>
+  </si>
+  <si>
+    <t>username:                         password: Valid_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Click on "Reset password" link.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The user should Not be logged in,         2.The "Please fill out this field" message should be displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The user should Not be logged in,        2.The "Please fill out this field" message should be displayed. </t>
+  </si>
+  <si>
+    <t>test_002_registration.py</t>
+  </si>
+  <si>
+    <t>Validate user registration with valid data</t>
+  </si>
+  <si>
+    <t>1. Open the application (http://127.0.0.1:8000/) in any Browser        2. Navigate to the registration page</t>
+  </si>
+  <si>
+    <t>1. Enter new user details into the Mandatory fields (Username, Email, Select Role, Password and Confirm the Password</t>
+  </si>
+  <si>
+    <t>Validate Login with empty username field and valid passwor. Validating the validation message.</t>
+  </si>
+  <si>
+    <t>Validate navigation to the reset password page.  Validating the validation message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The user should be navigated to the Reset password page.                                        2.Validation message "Please fill up this field" should be displayed. </t>
   </si>
 </sst>
 </file>
@@ -138,7 +236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-402]dd\ mmmm\ yyyy\ &quot;г.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="[$-402]dd\ mmmm\ yyyy\ &quot;г.&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -322,9 +420,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +459,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +749,7 @@
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,410 +761,410 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="16">
         <v>45326</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8">
-        <v>4</v>
+      <c r="E11" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1077,166 +1175,577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="10" width="12.88671875" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/MP_Test_Plan.xlsx
+++ b/Documentation/MP_Test_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Project Name</t>
   </si>
@@ -222,13 +222,145 @@
     <t>1. Enter new user details into the Mandatory fields (Username, Email, Select Role, Password and Confirm the Password</t>
   </si>
   <si>
-    <t>Validate Login with empty username field and valid passwor. Validating the validation message.</t>
-  </si>
-  <si>
     <t>Validate navigation to the reset password page.  Validating the validation message.</t>
   </si>
   <si>
     <t xml:space="preserve">1.The user should be navigated to the Reset password page.                                        2.Validation message "Please fill up this field" should be displayed. </t>
+  </si>
+  <si>
+    <t>Validate the min length of the username</t>
+  </si>
+  <si>
+    <t>Vallidate the username field is mandatory. Error message is displayed</t>
+  </si>
+  <si>
+    <t>Validate Login with empty username field and valid password. Validating the validation message.</t>
+  </si>
+  <si>
+    <t>Validate the username can NOT contains white space.</t>
+  </si>
+  <si>
+    <t>Validate the username can NOT contains special charecters.</t>
+  </si>
+  <si>
+    <t>Validate the username can NOT contains numbers</t>
+  </si>
+  <si>
+    <t>Validate the email field is mandatory. Validate the error message</t>
+  </si>
+  <si>
+    <t>Validate the email that  requare @ symbol</t>
+  </si>
+  <si>
+    <t>Validate the email must contains domain</t>
+  </si>
+  <si>
+    <t>Validate the email must contains name</t>
+  </si>
+  <si>
+    <t>Validate the email can contain more then one domain</t>
+  </si>
+  <si>
+    <t>Validate the email can contains only one @ symbol</t>
+  </si>
+  <si>
+    <t>Validate the email can NOT contains special character.</t>
+  </si>
+  <si>
+    <t>Validate the email name can NOT contains white space.</t>
+  </si>
+  <si>
+    <t>Validate the email name can not be numeric.</t>
+  </si>
+  <si>
+    <t>Validate the email domane can not be numeric.</t>
+  </si>
+  <si>
+    <t>Validate the password can NOT be simiret to the username.</t>
+  </si>
+  <si>
+    <t>Validate the min length of the password</t>
+  </si>
+  <si>
+    <t>Validate the password can not be too common</t>
+  </si>
+  <si>
+    <t>password',
+ 'qwertyui',
+ 'abcdefgh',
+ 'letmein1',
+ 'admin123',
+ 'monkey12',
+ 'sunshine',
+ 'football',
+ 'password1',
+ 'welcome1'</t>
+  </si>
+  <si>
+    <t>Validate the confirm password must be the same with the password</t>
+  </si>
+  <si>
+    <t>Validate the password max length</t>
+  </si>
+  <si>
+    <t>Validate the Password is mandatory</t>
+  </si>
+  <si>
+    <t>Validate the password can NOT contains only numbers.</t>
+  </si>
+  <si>
+    <t>Validate the password can not contains white space.</t>
+  </si>
+  <si>
+    <t>Validate Cancel button funtionality</t>
+  </si>
+  <si>
+    <t>Validate First Name field is mandatory.</t>
+  </si>
+  <si>
+    <t>Validate First Name can NOT contains numbers.</t>
+  </si>
+  <si>
+    <t>Validate First Name can NOTcontains special charecters.</t>
+  </si>
+  <si>
+    <t>Validate First Name can not contains white space.</t>
+  </si>
+  <si>
+    <t>Validate the first name min length</t>
+  </si>
+  <si>
+    <t>Validate First Name leading white space trim.</t>
+  </si>
+  <si>
+    <t>Validate First Name  tailing white space trim.</t>
+  </si>
+  <si>
+    <t>Validate Last Name field is mandatory.</t>
+  </si>
+  <si>
+    <t>Validate Last Name can NOT contains numbers.</t>
+  </si>
+  <si>
+    <t>Validate Last Name can NOTcontains special charecters.</t>
+  </si>
+  <si>
+    <t>Validate Last Name can not contains white space.</t>
+  </si>
+  <si>
+    <t>Validate Lastt name min length</t>
+  </si>
+  <si>
+    <t>Validate Last Name leading white space trim.</t>
+  </si>
+  <si>
+    <t>Validate Last Name  tailing white space trim.</t>
+  </si>
+  <si>
+    <t>Validate new registered user exist in the database</t>
+  </si>
+  <si>
+    <t>Validate Register with existing username.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +597,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +884,7 @@
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1175,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>31</v>
@@ -1394,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>31</v>
@@ -1406,7 +1541,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1432,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1645,9 @@
     <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -1519,10 +1656,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -1531,10 +1670,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
@@ -1543,10 +1684,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -1555,10 +1698,12 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -1567,10 +1712,12 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -1579,10 +1726,12 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -1590,6 +1739,470 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/MP_Test_Plan.xlsx
+++ b/Documentation/MP_Test_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
   <si>
     <t>Project Name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>username:                         password: Valid_pass</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Click on "Reset password" link.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.The user should Not be logged in,         2.The "Please fill out this field" message should be displayed. </t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Validate the email domane can not be numeric.</t>
-  </si>
-  <si>
-    <t>Validate the password can NOT be simiret to the username.</t>
   </si>
   <si>
     <t>Validate the min length of the password</t>
@@ -361,6 +355,120 @@
   </si>
   <si>
     <t>Validate Register with existing username.</t>
+  </si>
+  <si>
+    <t>Validate the password can NOT be simirer to the username.</t>
+  </si>
+  <si>
+    <t>Validte the password is masked.</t>
+  </si>
+  <si>
+    <t>Validte the confirmation password is masked.</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>Validate the Username lable.</t>
+  </si>
+  <si>
+    <t>Validate the Email lable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Login with empty username and empty password fields. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter valid username.                                                       3.Do not Enter password                                                         4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Do not Enter username.                                                       3.Do not Enter  password                                                         4.Click on [Sign in ] button.   </t>
+  </si>
+  <si>
+    <t>Validate Logging into the application and then browse back using Browser back button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on the right corner.                                            2.Click on "Reset password" link.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter username.                                                                3.Enter  password                                                              4.Click on [Sign in ] button.                                                      5. Click Browser back button </t>
+  </si>
+  <si>
+    <t>username:  valid_username                       password: Valid_pass</t>
+  </si>
+  <si>
+    <t>1. The user should not be logged out.</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>Validate Logging into the application with credentials on inactive account.</t>
+  </si>
+  <si>
+    <t>1. The user should not be able to login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter vaid username on inactive account.                                                                3.Enter valid  password on inactive account.                                                             4.Click on [Sign in ] button.                                                      </t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Validate the number of unsuccess login attempts.</t>
+  </si>
+  <si>
+    <t>username:  valid_username                       password: inalid_pass</t>
+  </si>
+  <si>
+    <t>1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter vaid username.                                                               3.Enter invalid  password.                                                             4.Click on [Sign in ] button.                                                      5. Repeat steps 2, 3 and 4  for 4 times</t>
+  </si>
+  <si>
+    <t>1. The user should not be able to login for one hour.</t>
+  </si>
+  <si>
+    <t>Validate the text enered into the password field is masked with dots or asterix.</t>
+  </si>
+  <si>
+    <t>Validate the password is not visible into the page sourse.</t>
+  </si>
+  <si>
+    <t>Validate the text entered into the password field is not able to be copyed.</t>
+  </si>
+  <si>
+    <t>Validate Login into the application after changing the password.</t>
+  </si>
+  <si>
+    <t>Validate Login into the application after changing the password with the old password.</t>
+  </si>
+  <si>
+    <t>1. Ckick on [Sign in ] button on tle right corner.                                            2.Enter vaid username.                                                               3.Enter invalid  password.                                                             4.Click on [Sign in ] button.                                                      5.Logout                                                                                     6.Reset Password                                                                      7. Try to Login with the old passord</t>
+  </si>
+  <si>
+    <t>username:  valid_username                       password: old_valid_pass               password: new_valid_pass</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Validate the UI on the Login page. ( Input fields are right size and on the right place, Lables are speling corect, Buttons are on the right place and no spelig mistakes, Links are with  no speling mistakes are on the right place)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Login in different browsers (Chrome, Edge, FireFox, Opera….) </t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
   </si>
 </sst>
 </file>
@@ -550,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,13 +700,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,7 +995,7 @@
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,65 +1010,65 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>45326</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1003,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1308,10 +1419,1177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="22.77734375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,193 +2639,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
+    <row r="3" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
+    <row r="4" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>41</v>
-      </c>
+    <row r="5" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>60</v>
-      </c>
+    <row r="6" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>61</v>
-      </c>
+    <row r="7" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>67</v>
-      </c>
+    <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1559,807 +2735,141 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="10" max="10" width="12.88671875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
+    <row r="10" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/MP_Test_Plan.xlsx
+++ b/Documentation/MP_Test_Plan.xlsx
@@ -478,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-402]dd\ mmmm\ yyyy\ &quot;г.&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +489,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -658,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,8 +723,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,462 +1447,462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="85.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="10" max="10" width="22.77734375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.21875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="21"/>
+    <col min="10" max="10" width="22.77734375" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="20" t="s">
         <v>115</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="20" t="s">
         <v>116</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="20" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="20" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
